--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Wood.Furniture.Kitchen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583A6612-8274-45FF-8B34-DCC9D14C274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,10 +60,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,7 +136,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
@@ -149,20 +150,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -172,21 +173,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -471,7 +472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1132,8 +1133,8 @@
       <c r="B24" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G24">
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Wood.Furniture.Kitchen\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583A6612-8274-45FF-8B34-DCC9D14C274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,10 +59,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -136,7 +135,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
@@ -150,20 +149,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -173,21 +172,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -472,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,31 +601,31 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <f t="shared" si="0"/>
         <v>28800</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>800</v>
       </c>
-      <c r="D5" s="18">
-        <v>120</v>
-      </c>
-      <c r="E5" s="18">
-        <v>32</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="D5" s="15">
+        <v>120</v>
+      </c>
+      <c r="E5" s="15">
+        <v>32</v>
+      </c>
+      <c r="F5" s="17">
         <v>36</v>
       </c>
-      <c r="G5" s="18">
-        <v>26</v>
+      <c r="G5" s="15">
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>0.72222222222222221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -650,11 +649,11 @@
         <v>12</v>
       </c>
       <c r="G6" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,26 +1077,26 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="19">
         <f t="shared" si="0"/>
         <v>5396</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="20">
         <v>1349</v>
       </c>
-      <c r="D22" s="1">
-        <v>120</v>
-      </c>
-      <c r="E22" s="1">
-        <v>32</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="D22" s="18">
+        <v>120</v>
+      </c>
+      <c r="E22" s="18">
+        <v>32</v>
+      </c>
+      <c r="F22" s="20">
         <v>4</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="18">
         <v>0</v>
       </c>
       <c r="H22" s="2">
@@ -1122,19 +1121,19 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.32608695652173914</v>
+        <v>0.38405797101449274</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Wood.Furniture.Kitchen\Кухня\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8360DB03-BB7D-43CD-8E1B-BF074402CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,10 +60,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,7 +136,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
@@ -149,20 +150,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -172,21 +173,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -471,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,31 +1022,31 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="17">
         <v>750</v>
       </c>
-      <c r="D20" s="12">
-        <v>120</v>
-      </c>
-      <c r="E20" s="12">
-        <v>32</v>
-      </c>
-      <c r="F20" s="14">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
+      <c r="D20" s="15">
+        <v>120</v>
+      </c>
+      <c r="E20" s="15">
+        <v>32</v>
+      </c>
+      <c r="F20" s="17">
+        <v>4</v>
+      </c>
+      <c r="G20" s="15">
+        <v>4</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1077,31 +1078,31 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>5396</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>1349</v>
       </c>
-      <c r="D22" s="18">
-        <v>120</v>
-      </c>
-      <c r="E22" s="18">
-        <v>32</v>
-      </c>
-      <c r="F22" s="20">
-        <v>4</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0</v>
+      <c r="D22" s="15">
+        <v>120</v>
+      </c>
+      <c r="E22" s="15">
+        <v>32</v>
+      </c>
+      <c r="F22" s="17">
+        <v>4</v>
+      </c>
+      <c r="G22" s="15">
+        <v>4</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1121,19 +1122,19 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.38405797101449274</v>
+        <v>0.41304347826086957</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G24">
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8360DB03-BB7D-43CD-8E1B-BF074402CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA110BEF-4124-4D1C-B8CF-ADF5F626BAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,12 +100,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +133,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,13 +178,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -473,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,31 +617,31 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>6612</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>551</v>
       </c>
-      <c r="D6" s="18">
-        <v>120</v>
-      </c>
-      <c r="E6" s="18">
-        <v>32</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="D6" s="15">
+        <v>120</v>
+      </c>
+      <c r="E6" s="15">
+        <v>32</v>
+      </c>
+      <c r="F6" s="17">
         <v>12</v>
       </c>
-      <c r="G6" s="18">
-        <v>6</v>
+      <c r="G6" s="15">
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,15 +1109,18 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.41304347826086957</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -1149,6 +1139,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA110BEF-4124-4D1C-B8CF-ADF5F626BAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DAA9CB-2D3E-4C5C-BA09-035BEA63FA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,11 +581,11 @@
         <v>24</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.43478260869565216</v>
+        <v>0.4420289855072464</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">

--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DAA9CB-2D3E-4C5C-BA09-035BEA63FA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FCC3BE-DE4B-4037-A825-EAD4DAC4106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,11 +581,11 @@
         <v>24</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.4420289855072464</v>
+        <v>0.44927536231884058</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">

--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FCC3BE-DE4B-4037-A825-EAD4DAC4106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA81C31-08CB-4F8E-9B8B-6EA218F6CC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +139,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +184,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,7 +476,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,31 +574,31 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="19">
         <f t="shared" si="0"/>
         <v>16464</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="20">
         <v>686</v>
       </c>
-      <c r="D4" s="12">
-        <v>120</v>
-      </c>
-      <c r="E4" s="12">
-        <v>32</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="18">
+        <v>120</v>
+      </c>
+      <c r="E4" s="18">
+        <v>32</v>
+      </c>
+      <c r="F4" s="20">
         <v>24</v>
       </c>
-      <c r="G4" s="1">
-        <v>4</v>
+      <c r="G4" s="18">
+        <v>6</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,11 +1122,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.44927536231884058</v>
+        <v>0.45652173913043476</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">

--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA81C31-08CB-4F8E-9B8B-6EA218F6CC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43A37BD-89DB-408F-AD4D-345F945EE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,11 +594,11 @@
         <v>24</v>
       </c>
       <c r="G4" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,11 +1122,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.45652173913043476</v>
+        <v>0.46376811594202899</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">

--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43A37BD-89DB-408F-AD4D-345F945EE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4723A320-5818-4403-A6F9-318B5A1C2BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +145,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +197,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,7 +489,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,31 +895,31 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="22">
         <f t="shared" si="0"/>
         <v>1412</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="23">
         <v>706</v>
       </c>
-      <c r="D15" s="15">
-        <v>120</v>
-      </c>
-      <c r="E15" s="15">
-        <v>32</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="D15" s="21">
+        <v>120</v>
+      </c>
+      <c r="E15" s="21">
+        <v>32</v>
+      </c>
+      <c r="F15" s="23">
         <v>2</v>
       </c>
-      <c r="G15" s="15">
-        <v>2</v>
+      <c r="G15" s="21">
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,11 +1135,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.46376811594202899</v>
+        <v>0.45652173913043476</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">

--- a/Кухня/Детали.xlsx
+++ b/Кухня/Детали.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4723A320-5818-4403-A6F9-318B5A1C2BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113065BF-F3D8-4053-ACD9-8AD31087417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+      <c r="B24" s="9">
+        <f>B2+B4+B8+B9+B11+B12+B15+B18+B19</f>
+        <v>61200</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
